--- a/038-CSS 系列/02-2023 兔年祝福/src/dist/「新春贺词 - 兔飞猛进」.xlsx
+++ b/038-CSS 系列/02-2023 兔年祝福/src/dist/「新春贺词 - 兔飞猛进」.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>填写声明</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>冲鸭~~~</t>
+  </si>
+  <si>
+    <t>麦田的香</t>
+  </si>
+  <si>
+    <t>给 2023 的自己</t>
+  </si>
+  <si>
+    <t>☆ 2022 随风飘逝，2023，我们来啦！</t>
+  </si>
+  <si>
+    <t>冲鸭~~~123</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1454,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" ht="256.5" spans="1:6">
+    <row r="5" ht="175.5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
@@ -1463,7 +1475,27 @@
         <v>https://liangjunrong.github.io/?username=梁峻荣</v>
       </c>
     </row>
-    <row r="6" ht="67.5"/>
+    <row r="6" ht="67.5" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>"https://liangjunrong.github.io/?username="&amp;A:A</f>
+        <v>https://liangjunrong.github.io/?username=麦田的香</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="3">
